--- a/Sample/Sample.xlsx
+++ b/Sample/Sample.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\kali-linux\home\user\codes\japanesetraditionalexcel2openapi\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B2831C-C812-45AB-AEFD-CBD7A573EFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18673C34-F9B7-4FA2-AA44-9738E432759E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9A60F71B-2FFD-49CB-915A-3831AD03BF91}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="7" r:id="rId1"/>
-    <sheet name="入力項目定義" sheetId="1" r:id="rId2"/>
-    <sheet name="出力項目定義" sheetId="8" r:id="rId3"/>
+    <sheet name="アカウント登録-request" sheetId="1" r:id="rId2"/>
+    <sheet name="アカウント登録-response" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="65">
   <si>
     <t>システム</t>
     <phoneticPr fontId="2"/>
@@ -296,24 +296,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>HTTPステータスコード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>結果コード</t>
-    <rPh sb="0" eb="2">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>結果メッセージ</t>
-    <rPh sb="0" eb="2">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>content-type</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -338,14 +320,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http-status</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>HEADER</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -355,10 +329,6 @@
   </si>
   <si>
     <t>レスポンスヘッダーのコンテンツタイプ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HTTPのレスポンスコード</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -387,39 +357,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>result-code</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>システム作成のコード</t>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>result-message</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>システム生成のメッセージ</t>
-    <rPh sb="4" eb="6">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リクエスト完了</t>
-    <rPh sb="5" eb="7">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ユーザー情報</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
@@ -495,6 +432,18 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>affiliation-code</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>affiliation-name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>XXXXX</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -769,6 +718,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -789,30 +762,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1344,7 +1293,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -1406,7 +1355,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -1543,7 +1492,7 @@
   <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:BD11"/>
+      <selection activeCell="AZ11" sqref="AZ11:BD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1561,18 +1510,18 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="18"/>
+      <c r="K1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="26"/>
       <c r="U1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1585,18 +1534,18 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="5"/>
-      <c r="AE1" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="18"/>
+      <c r="AE1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9"/>
@@ -1609,16 +1558,16 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="9"/>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
@@ -1629,16 +1578,16 @@
       <c r="AB2" s="10"/>
       <c r="AC2" s="10"/>
       <c r="AD2" s="11"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="21"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="29"/>
     </row>
     <row r="3" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
@@ -1722,7 +1671,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="22">
+      <c r="Z4" s="30">
         <v>36526</v>
       </c>
       <c r="AA4" s="2"/>
@@ -1772,7 +1721,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="22">
+      <c r="Z5" s="30">
         <v>36558</v>
       </c>
       <c r="AA5" s="2"/>
@@ -1799,7 +1748,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -1877,7 +1826,7 @@
     <row r="9" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -1940,17 +1889,17 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1961,7 +1910,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -1972,7 +1921,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -1984,31 +1933,31 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
-      <c r="AO10" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP10" s="25"/>
-      <c r="AQ10" s="25"/>
-      <c r="AR10" s="25"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="25"/>
-      <c r="AU10" s="25"/>
-      <c r="AV10" s="25"/>
-      <c r="AW10" s="25"/>
-      <c r="AX10" s="25"/>
-      <c r="AY10" s="25"/>
-      <c r="AZ10" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA10" s="27"/>
-      <c r="BB10" s="27"/>
-      <c r="BC10" s="27"/>
-      <c r="BD10" s="28"/>
+      <c r="AO10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA10" s="19"/>
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="20"/>
     </row>
     <row r="11" spans="1:56" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
@@ -2018,17 +1967,17 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
+      <c r="D11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2039,7 +1988,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -2052,7 +2001,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -2064,13 +2013,13 @@
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
       <c r="AO11" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2"/>
@@ -2082,7 +2031,9 @@
       <c r="AW11" s="2"/>
       <c r="AX11" s="2"/>
       <c r="AY11" s="2"/>
-      <c r="AZ11" s="2"/>
+      <c r="AZ11" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
       <c r="BC11" s="2"/>
@@ -2090,6 +2041,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A3:J5"/>
+    <mergeCell ref="K3:T5"/>
+    <mergeCell ref="AE1:AN2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U5:Y5"/>
+    <mergeCell ref="Z4:AD4"/>
+    <mergeCell ref="Z5:AD5"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:T2"/>
+    <mergeCell ref="U1:AD2"/>
+    <mergeCell ref="Y8:AB9"/>
+    <mergeCell ref="AE4:AI4"/>
+    <mergeCell ref="AE5:AI5"/>
+    <mergeCell ref="AJ4:AN4"/>
+    <mergeCell ref="AJ5:AN5"/>
+    <mergeCell ref="AC8:AF9"/>
+    <mergeCell ref="AG8:AJ9"/>
+    <mergeCell ref="AK8:AN9"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:J9"/>
+    <mergeCell ref="K8:S9"/>
+    <mergeCell ref="T8:X9"/>
+    <mergeCell ref="AO11:AY11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="K10:S10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AB10"/>
     <mergeCell ref="AZ11:BD11"/>
     <mergeCell ref="AO8:AY9"/>
     <mergeCell ref="AZ8:BD9"/>
@@ -2106,39 +2090,6 @@
     <mergeCell ref="AC11:AF11"/>
     <mergeCell ref="AG11:AJ11"/>
     <mergeCell ref="AK11:AN11"/>
-    <mergeCell ref="AO11:AY11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="K10:S10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:J9"/>
-    <mergeCell ref="K8:S9"/>
-    <mergeCell ref="T8:X9"/>
-    <mergeCell ref="Y8:AB9"/>
-    <mergeCell ref="AE4:AI4"/>
-    <mergeCell ref="AE5:AI5"/>
-    <mergeCell ref="AJ4:AN4"/>
-    <mergeCell ref="AJ5:AN5"/>
-    <mergeCell ref="AC8:AF9"/>
-    <mergeCell ref="AG8:AJ9"/>
-    <mergeCell ref="AK8:AN9"/>
-    <mergeCell ref="A3:J5"/>
-    <mergeCell ref="K3:T5"/>
-    <mergeCell ref="AE1:AN2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="U5:Y5"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="Z5:AD5"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:T2"/>
-    <mergeCell ref="U1:AD2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2147,10 +2098,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAFDE65-C6EB-4DFE-9286-94527D0A4A9F}">
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="AO18" sqref="AO18:AY18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2168,18 +2119,18 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="18"/>
+      <c r="K1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="26"/>
       <c r="U1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2192,18 +2143,18 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="5"/>
-      <c r="AE1" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="18"/>
+      <c r="AE1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="26"/>
     </row>
     <row r="2" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9"/>
@@ -2216,16 +2167,16 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="9"/>
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
@@ -2236,16 +2187,16 @@
       <c r="AB2" s="10"/>
       <c r="AC2" s="10"/>
       <c r="AD2" s="11"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="21"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="29"/>
     </row>
     <row r="3" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
@@ -2329,7 +2280,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="22">
+      <c r="Z4" s="30">
         <v>36526</v>
       </c>
       <c r="AA4" s="2"/>
@@ -2379,7 +2330,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="22">
+      <c r="Z5" s="30">
         <v>36558</v>
       </c>
       <c r="AA5" s="2"/>
@@ -2406,7 +2357,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -2484,7 +2435,7 @@
     <row r="9" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -2547,17 +2498,17 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="D10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2568,54 +2519,54 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>10</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
-      <c r="AO10" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP10" s="25"/>
-      <c r="AQ10" s="25"/>
-      <c r="AR10" s="25"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="25"/>
-      <c r="AU10" s="25"/>
-      <c r="AV10" s="25"/>
-      <c r="AW10" s="25"/>
-      <c r="AX10" s="25"/>
-      <c r="AY10" s="25"/>
-      <c r="AZ10" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA10" s="27"/>
-      <c r="BB10" s="27"/>
-      <c r="BC10" s="27"/>
-      <c r="BD10" s="28"/>
+      <c r="AO10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
     </row>
     <row r="11" spans="1:56" ht="33" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
@@ -2625,17 +2576,17 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
+      <c r="D11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2646,20 +2597,18 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>3</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -2671,27 +2620,25 @@
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
-      <c r="AO11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="2"/>
-      <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2"/>
-      <c r="AY11" s="2"/>
-      <c r="AZ11" s="2">
-        <v>200</v>
-      </c>
+      <c r="AO11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP11" s="17"/>
+      <c r="AQ11" s="17"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="17"/>
+      <c r="AT11" s="17"/>
+      <c r="AU11" s="17"/>
+      <c r="AV11" s="17"/>
+      <c r="AW11" s="17"/>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="17"/>
+      <c r="AZ11" s="2"/>
       <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
       <c r="BC11" s="2"/>
@@ -2703,19 +2650,19 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -2726,20 +2673,18 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>8</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -2751,13 +2696,13 @@
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
@@ -2769,9 +2714,7 @@
       <c r="AW12" s="2"/>
       <c r="AX12" s="2"/>
       <c r="AY12" s="2"/>
-      <c r="AZ12" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="AZ12" s="2"/>
       <c r="BA12" s="2"/>
       <c r="BB12" s="2"/>
       <c r="BC12" s="2"/>
@@ -2783,19 +2726,19 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2806,7 +2749,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -2817,7 +2760,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -2829,13 +2772,13 @@
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
       <c r="AO13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
@@ -2847,9 +2790,7 @@
       <c r="AW13" s="2"/>
       <c r="AX13" s="2"/>
       <c r="AY13" s="2"/>
-      <c r="AZ13" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
       <c r="BB13" s="2"/>
       <c r="BC13" s="2"/>
@@ -2857,23 +2798,23 @@
     </row>
     <row r="14" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="D14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2884,20 +2825,18 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>10</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -2909,13 +2848,13 @@
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
@@ -2935,23 +2874,23 @@
     </row>
     <row r="15" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="D15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2962,7 +2901,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -2972,37 +2911,35 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
-      <c r="AO15" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="25"/>
-      <c r="AW15" s="25"/>
-      <c r="AX15" s="25"/>
-      <c r="AY15" s="25"/>
+      <c r="AO15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
       <c r="AZ15" s="2"/>
       <c r="BA15" s="2"/>
       <c r="BB15" s="2"/>
@@ -3011,23 +2948,23 @@
     </row>
     <row r="16" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -3038,7 +2975,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -3049,25 +2986,25 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
@@ -3085,422 +3022,16 @@
       <c r="BC16" s="2"/>
       <c r="BD16" s="2"/>
     </row>
-    <row r="17" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="2">
-        <v>7</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
-      <c r="AN17" s="2"/>
-      <c r="AO17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP17" s="2"/>
-      <c r="AQ17" s="2"/>
-      <c r="AR17" s="2"/>
-      <c r="AS17" s="2"/>
-      <c r="AT17" s="2"/>
-      <c r="AU17" s="2"/>
-      <c r="AV17" s="2"/>
-      <c r="AW17" s="2"/>
-      <c r="AX17" s="2"/>
-      <c r="AY17" s="2"/>
-      <c r="AZ17" s="2"/>
-      <c r="BA17" s="2"/>
-      <c r="BB17" s="2"/>
-      <c r="BC17" s="2"/>
-      <c r="BD17" s="2"/>
-    </row>
-    <row r="18" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="2">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
-      <c r="AN18" s="2"/>
-      <c r="AO18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP18" s="2"/>
-      <c r="AQ18" s="2"/>
-      <c r="AR18" s="2"/>
-      <c r="AS18" s="2"/>
-      <c r="AT18" s="2"/>
-      <c r="AU18" s="2"/>
-      <c r="AV18" s="2"/>
-      <c r="AW18" s="2"/>
-      <c r="AX18" s="2"/>
-      <c r="AY18" s="2"/>
-      <c r="AZ18" s="2"/>
-      <c r="BA18" s="2"/>
-      <c r="BB18" s="2"/>
-      <c r="BC18" s="2"/>
-      <c r="BD18" s="2"/>
-    </row>
-    <row r="19" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="2">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="2"/>
-      <c r="AO19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP19" s="2"/>
-      <c r="AQ19" s="2"/>
-      <c r="AR19" s="2"/>
-      <c r="AS19" s="2"/>
-      <c r="AT19" s="2"/>
-      <c r="AU19" s="2"/>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="2"/>
-      <c r="AY19" s="2"/>
-      <c r="AZ19" s="2"/>
-      <c r="BA19" s="2"/>
-      <c r="BB19" s="2"/>
-      <c r="BC19" s="2"/>
-      <c r="BD19" s="2"/>
-    </row>
-    <row r="20" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="2">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL20" s="2"/>
-      <c r="AM20" s="2"/>
-      <c r="AN20" s="2"/>
-      <c r="AO20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP20" s="2"/>
-      <c r="AQ20" s="2"/>
-      <c r="AR20" s="2"/>
-      <c r="AS20" s="2"/>
-      <c r="AT20" s="2"/>
-      <c r="AU20" s="2"/>
-      <c r="AV20" s="2"/>
-      <c r="AW20" s="2"/>
-      <c r="AX20" s="2"/>
-      <c r="AY20" s="2"/>
-      <c r="AZ20" s="2"/>
-      <c r="BA20" s="2"/>
-      <c r="BB20" s="2"/>
-      <c r="BC20" s="2"/>
-      <c r="BD20" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="139">
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="AK14:AN14"/>
-    <mergeCell ref="AO14:AY14"/>
-    <mergeCell ref="AZ14:BD14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="K14:S14"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:S18"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="AG19:AJ19"/>
-    <mergeCell ref="AK19:AN19"/>
-    <mergeCell ref="AO19:AY19"/>
-    <mergeCell ref="AZ19:BD19"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="AG18:AJ18"/>
-    <mergeCell ref="AK18:AN18"/>
-    <mergeCell ref="AO18:AY18"/>
-    <mergeCell ref="AZ18:BD18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="K19:S19"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:S20"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="AG20:AJ20"/>
-    <mergeCell ref="AK20:AN20"/>
-    <mergeCell ref="AO20:AY20"/>
-    <mergeCell ref="AZ20:BD20"/>
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="AK17:AN17"/>
-    <mergeCell ref="AO17:AY17"/>
-    <mergeCell ref="AZ17:BD17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="K17:S17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="AG16:AJ16"/>
-    <mergeCell ref="AK16:AN16"/>
-    <mergeCell ref="AO16:AY16"/>
-    <mergeCell ref="AZ16:BD16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="K16:S16"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC15:AF15"/>
-    <mergeCell ref="AG15:AJ15"/>
-    <mergeCell ref="AK15:AN15"/>
-    <mergeCell ref="AO15:AY15"/>
-    <mergeCell ref="AZ15:BD15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="K15:S15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="AK13:AN13"/>
-    <mergeCell ref="AO13:AY13"/>
-    <mergeCell ref="AZ13:BD13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="K13:S13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="AK11:AN11"/>
-    <mergeCell ref="AO11:AY11"/>
-    <mergeCell ref="AZ11:BD11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:S12"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="AK12:AN12"/>
-    <mergeCell ref="AO12:AY12"/>
-    <mergeCell ref="AZ12:BD12"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="AK10:AN10"/>
-    <mergeCell ref="AO10:AY10"/>
-    <mergeCell ref="AZ10:BD10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="K11:S11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="K10:S10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC10:AF10"/>
+  <mergeCells count="99">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:T2"/>
+    <mergeCell ref="U1:AD2"/>
+    <mergeCell ref="AE1:AN2"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AJ3:AN3"/>
     <mergeCell ref="Y8:AB9"/>
     <mergeCell ref="AC8:AF9"/>
     <mergeCell ref="AG8:AJ9"/>
@@ -3522,14 +3053,76 @@
     <mergeCell ref="AE5:AI5"/>
     <mergeCell ref="AJ5:AN5"/>
     <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:T2"/>
-    <mergeCell ref="U1:AD2"/>
-    <mergeCell ref="AE1:AN2"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="AK11:AN11"/>
+    <mergeCell ref="AO11:AY11"/>
+    <mergeCell ref="AZ11:BD11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K11:S11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="AK12:AN12"/>
+    <mergeCell ref="AO12:AY12"/>
+    <mergeCell ref="AZ12:BD12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K12:S12"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AZ16:BD16"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="AK13:AN13"/>
+    <mergeCell ref="AO13:AY13"/>
+    <mergeCell ref="AZ13:BD13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="K13:S13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="K16:S16"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AG16:AJ16"/>
+    <mergeCell ref="AK16:AN16"/>
+    <mergeCell ref="AO16:AY16"/>
+    <mergeCell ref="AZ15:BD15"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="AK14:AN14"/>
+    <mergeCell ref="AO14:AY14"/>
+    <mergeCell ref="AZ14:BD14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="K15:S15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="K14:S14"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="AG15:AJ15"/>
+    <mergeCell ref="AK15:AN15"/>
+    <mergeCell ref="AO15:AY15"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="AK10:AN10"/>
+    <mergeCell ref="AO10:AY10"/>
+    <mergeCell ref="AZ10:BD10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="K10:S10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Y10:AB10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
